--- a/GVI & WUB/LS2/Darlehen.xlsx
+++ b/GVI & WUB/LS2/Darlehen.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A334B67-7C09-504E-BFFD-F2C1BBB54C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D6A4A-9EB5-714B-A39E-FC9C0E1726F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{19145FF4-2683-6F4D-8A4B-9450B1FFE9E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F230577B-34A0-4641-8523-429907D21A9C}">
   <dimension ref="C3:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +692,7 @@
         <v>12000</v>
       </c>
       <c r="E15" s="3">
-        <f>D15*$E$4</f>
+        <f>D15*$E$13</f>
         <v>960</v>
       </c>
       <c r="F15" s="1">
@@ -716,7 +716,7 @@
         <v>8000</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" ref="E16:E17" si="2">D16*$E$4</f>
+        <f t="shared" ref="E16:E17" si="2">D16*$E$13</f>
         <v>640</v>
       </c>
       <c r="F16" s="1">
@@ -811,7 +811,7 @@
         <v>12000</v>
       </c>
       <c r="E24" s="3">
-        <f>D24*$E$4</f>
+        <f>D24*$E$22</f>
         <v>960</v>
       </c>
       <c r="F24" s="1">
@@ -835,11 +835,11 @@
         <v>7960</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" ref="E25:E26" si="4">D25*$E$4</f>
+        <f t="shared" ref="E25:E26" si="4">D25*$E$22</f>
         <v>636.80000000000007</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25:F26" si="5">G25-E25</f>
+        <f t="shared" ref="F25" si="5">G25-E25</f>
         <v>4363.2</v>
       </c>
       <c r="G25" s="1">
@@ -863,8 +863,8 @@
         <v>287.74400000000003</v>
       </c>
       <c r="F26" s="1">
-        <f>D26</f>
-        <v>3596.8</v>
+        <f>D26-500</f>
+        <v>3096.8</v>
       </c>
       <c r="G26" s="1">
         <f>D26+E26</f>
@@ -872,7 +872,7 @@
       </c>
       <c r="H26" s="1">
         <f>D26-F26</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
@@ -885,11 +885,11 @@
       </c>
       <c r="F27" s="1">
         <f>SUM(F24:F26)</f>
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="G27" s="1">
         <f>E27+F27</f>
-        <v>13884.544</v>
+        <v>13384.544</v>
       </c>
       <c r="H27" s="1"/>
     </row>

--- a/GVI & WUB/LS2/Darlehen.xlsx
+++ b/GVI & WUB/LS2/Darlehen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D6A4A-9EB5-714B-A39E-FC9C0E1726F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED65D5-AEED-D044-9417-AD5AB19DA264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{19145FF4-2683-6F4D-8A4B-9450B1FFE9E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Jahr</t>
   </si>
@@ -524,7 +524,7 @@
   <dimension ref="C3:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,6 +777,12 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E22" s="2">
@@ -863,7 +869,7 @@
         <v>287.74400000000003</v>
       </c>
       <c r="F26" s="1">
-        <f>D26-500</f>
+        <f>D26-G21</f>
         <v>3096.8</v>
       </c>
       <c r="G26" s="1">

--- a/GVI & WUB/LS2/Darlehen.xlsx
+++ b/GVI & WUB/LS2/Darlehen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED65D5-AEED-D044-9417-AD5AB19DA264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B8137E-CC77-4749-B11A-DA37E3A1FDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{19145FF4-2683-6F4D-8A4B-9450B1FFE9E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Jahr</t>
   </si>
@@ -524,7 +524,7 @@
   <dimension ref="C3:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +541,12 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E4" s="2">
@@ -625,15 +631,16 @@
         <v>960</v>
       </c>
       <c r="F8" s="1">
-        <v>12000</v>
+        <f>D8-G3</f>
+        <v>11500</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>12960</v>
+        <v>12460</v>
       </c>
       <c r="H8" s="1">
         <f>D8-F8</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
@@ -646,11 +653,11 @@
       </c>
       <c r="F9" s="1">
         <f>SUM(F6:F8)</f>
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="G9" s="1">
         <f>E9+F9</f>
-        <v>14880</v>
+        <v>14380</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -658,6 +665,12 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E13" s="2">
@@ -744,15 +757,16 @@
         <v>320</v>
       </c>
       <c r="F17" s="1">
-        <v>4000</v>
+        <f>D17-G12</f>
+        <v>3500</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="3"/>
-        <v>4320</v>
+        <v>3820</v>
       </c>
       <c r="H17" s="1">
         <f>D17-F17</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
@@ -765,11 +779,11 @@
       </c>
       <c r="F18" s="1">
         <f>SUM(F15:F17)</f>
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="G18" s="1">
         <f>E18+F18</f>
-        <v>13920</v>
+        <v>13420</v>
       </c>
       <c r="H18" s="1"/>
     </row>

--- a/GVI & WUB/LS2/Darlehen.xlsx
+++ b/GVI & WUB/LS2/Darlehen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B8137E-CC77-4749-B11A-DA37E3A1FDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A0819-9829-154B-BE08-9371823F9716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{19145FF4-2683-6F4D-8A4B-9450B1FFE9E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Jahr</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Gesamtkosten</t>
+  </si>
+  <si>
+    <t>mit Restschuld</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F230577B-34A0-4641-8523-429907D21A9C}">
-  <dimension ref="C3:H35"/>
+  <dimension ref="C3:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,6 +664,15 @@
       </c>
       <c r="H9" s="1"/>
     </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <f>G9+H8</f>
+        <v>14880</v>
+      </c>
+    </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>8</v>
@@ -787,6 +799,15 @@
       </c>
       <c r="H18" s="1"/>
     </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <f>G18+H17</f>
+        <v>13920</v>
+      </c>
+    </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>9</v>
@@ -913,6 +934,15 @@
       </c>
       <c r="H27" s="1"/>
     </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <f>G27+H26</f>
+        <v>13884.544</v>
+      </c>
+    </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>10</v>
@@ -949,6 +979,15 @@
       <c r="E35" s="5">
         <f>36*E33-E34</f>
         <v>15700</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="5">
+        <f>E35+E34</f>
+        <v>16200</v>
       </c>
     </row>
   </sheetData>

--- a/GVI & WUB/LS2/Darlehen.xlsx
+++ b/GVI & WUB/LS2/Darlehen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A0819-9829-154B-BE08-9371823F9716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47EF946-6CFA-A84C-88E7-BFF1EFE8CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{19145FF4-2683-6F4D-8A4B-9450B1FFE9E9}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="C3:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
